--- a/data_base2.xlsx
+++ b/data_base2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>names</t>
   </si>
@@ -54,21 +54,6 @@
     <t>s</t>
   </si>
   <si>
-    <t>yu</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
@@ -76,6 +61,12 @@
   </si>
   <si>
     <t>B2</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>3.5</t>
   </si>
 </sst>
 </file>
@@ -111,8 +102,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,29 +387,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -428,8 +425,11 @@
       <c r="D2">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -442,8 +442,11 @@
       <c r="D3">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -456,8 +459,11 @@
       <c r="D4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -470,8 +476,11 @@
       <c r="D5">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -481,11 +490,14 @@
       <c r="C6">
         <v>6</v>
       </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -498,8 +510,11 @@
       <c r="D7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -512,8 +527,11 @@
       <c r="D8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -526,8 +544,11 @@
       <c r="D9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -540,8 +561,11 @@
       <c r="D10">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -554,8 +578,11 @@
       <c r="D11">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -568,8 +595,11 @@
       <c r="D12">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -582,8 +612,11 @@
       <c r="D13">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -596,100 +629,8 @@
       <c r="D14">
         <v>64</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>9</v>
-      </c>
-      <c r="D15">
+      <c r="E14">
         <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16">
-        <v>7</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>7</v>
-      </c>
-      <c r="D17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18">
-        <v>9</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>63</v>
-      </c>
-      <c r="D19">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>8</v>
-      </c>
-      <c r="D21">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
